--- a/scalpel/typeinfer/evaluation/evaluation_outputs/google__python-fire.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/google__python-fire.xlsx
@@ -48,12 +48,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
+        <fgColor rgb="00008000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00008000"/>
+        <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F272"/>
+  <dimension ref="A1:F273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,7 +640,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'Dict[any, any]'}</t>
+          <t>{'Dict[any, any]', 'any'}</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -672,12 +672,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>Dict[any, any]</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
           <t>{'bool'}</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="F20" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -1123,7 +1123,7 @@
           <t>bool</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="F21" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -1152,10 +1152,10 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'str'}</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="inlineStr">
+          <t>{'str', 'any'}</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -1184,10 +1184,10 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -1347,7 +1347,7 @@
           <t>{'any', 'Tuple[any]'}</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -1379,7 +1379,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -1411,7 +1411,7 @@
           <t>{'any', 'list'}</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -1443,7 +1443,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -1539,7 +1539,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F34" s="4" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -1571,7 +1571,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -1603,7 +1603,7 @@
           <t>{'bool'}</t>
         </is>
       </c>
-      <c r="F36" s="5" t="inlineStr">
+      <c r="F36" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -1635,7 +1635,7 @@
           <t>bool</t>
         </is>
       </c>
-      <c r="F37" s="5" t="inlineStr">
+      <c r="F37" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -2048,12 +2048,12 @@
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'str'}</t>
-        </is>
-      </c>
-      <c r="F50" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>{'str', 'any'}</t>
+        </is>
+      </c>
+      <c r="F50" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -2080,12 +2080,12 @@
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F51" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F51" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -2179,7 +2179,7 @@
           <t>{'bool'}</t>
         </is>
       </c>
-      <c r="F54" s="4" t="inlineStr">
+      <c r="F54" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -2211,7 +2211,7 @@
           <t>bool</t>
         </is>
       </c>
-      <c r="F55" s="4" t="inlineStr">
+      <c r="F55" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -2371,7 +2371,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F60" s="4" t="inlineStr">
+      <c r="F60" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -2403,7 +2403,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F61" s="4" t="inlineStr">
+      <c r="F61" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -2435,7 +2435,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F62" s="4" t="inlineStr">
+      <c r="F62" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -2467,7 +2467,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F63" s="4" t="inlineStr">
+      <c r="F63" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -4067,7 +4067,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F113" s="4" t="inlineStr">
+      <c r="F113" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -4099,7 +4099,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F114" s="4" t="inlineStr">
+      <c r="F114" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -4259,7 +4259,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F119" s="4" t="inlineStr">
+      <c r="F119" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -4291,7 +4291,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F120" s="4" t="inlineStr">
+      <c r="F120" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -4515,7 +4515,7 @@
           <t>{'int'}</t>
         </is>
       </c>
-      <c r="F127" s="4" t="inlineStr">
+      <c r="F127" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -4547,7 +4547,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F128" s="4" t="inlineStr">
+      <c r="F128" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -4579,7 +4579,7 @@
           <t>{'int'}</t>
         </is>
       </c>
-      <c r="F129" s="5" t="inlineStr">
+      <c r="F129" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -4611,7 +4611,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F130" s="5" t="inlineStr">
+      <c r="F130" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -4643,7 +4643,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F131" s="4" t="inlineStr">
+      <c r="F131" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -4675,7 +4675,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F132" s="4" t="inlineStr">
+      <c r="F132" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -4707,7 +4707,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F133" s="4" t="inlineStr">
+      <c r="F133" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -4739,7 +4739,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F134" s="4" t="inlineStr">
+      <c r="F134" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -4771,7 +4771,7 @@
           <t>{'int'}</t>
         </is>
       </c>
-      <c r="F135" s="4" t="inlineStr">
+      <c r="F135" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -4803,7 +4803,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F136" s="4" t="inlineStr">
+      <c r="F136" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -4835,7 +4835,7 @@
           <t>{'int'}</t>
         </is>
       </c>
-      <c r="F137" s="5" t="inlineStr">
+      <c r="F137" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -4867,7 +4867,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F138" s="5" t="inlineStr">
+      <c r="F138" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -4899,7 +4899,7 @@
           <t>{'int'}</t>
         </is>
       </c>
-      <c r="F139" s="4" t="inlineStr">
+      <c r="F139" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -4931,7 +4931,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F140" s="4" t="inlineStr">
+      <c r="F140" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -4963,7 +4963,7 @@
           <t>{'int'}</t>
         </is>
       </c>
-      <c r="F141" s="4" t="inlineStr">
+      <c r="F141" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -4995,7 +4995,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F142" s="4" t="inlineStr">
+      <c r="F142" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -5027,7 +5027,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F143" s="4" t="inlineStr">
+      <c r="F143" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -5059,7 +5059,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F144" s="4" t="inlineStr">
+      <c r="F144" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -5091,7 +5091,7 @@
           <t>{'int'}</t>
         </is>
       </c>
-      <c r="F145" s="4" t="inlineStr">
+      <c r="F145" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -5123,7 +5123,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F146" s="4" t="inlineStr">
+      <c r="F146" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -5155,7 +5155,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F147" s="4" t="inlineStr">
+      <c r="F147" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -5187,7 +5187,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F148" s="4" t="inlineStr">
+      <c r="F148" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -5347,7 +5347,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F153" s="5" t="inlineStr">
+      <c r="F153" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -5379,7 +5379,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F154" s="5" t="inlineStr">
+      <c r="F154" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -5443,7 +5443,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F156" s="5" t="inlineStr">
+      <c r="F156" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -5667,7 +5667,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F163" s="4" t="inlineStr">
+      <c r="F163" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -5699,7 +5699,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F164" s="4" t="inlineStr">
+      <c r="F164" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -5923,7 +5923,7 @@
           <t>{'bool'}</t>
         </is>
       </c>
-      <c r="F171" s="4" t="inlineStr">
+      <c r="F171" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -5955,7 +5955,7 @@
           <t>bool</t>
         </is>
       </c>
-      <c r="F172" s="4" t="inlineStr">
+      <c r="F172" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -7043,7 +7043,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F206" s="4" t="inlineStr">
+      <c r="F206" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -7075,7 +7075,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F207" s="4" t="inlineStr">
+      <c r="F207" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E271" s="2" t="inlineStr">
         <is>
@@ -9120,21 +9120,35 @@
         </is>
       </c>
       <c r="F271" s="2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="inlineStr"/>
       <c r="B272" s="2" t="inlineStr"/>
-      <c r="C272" s="2" t="inlineStr"/>
-      <c r="D272" s="2" t="inlineStr"/>
-      <c r="E272" s="2" t="inlineStr">
+      <c r="C272" s="2" t="inlineStr">
+        <is>
+          <t>Scalpel Accuracy:</t>
+        </is>
+      </c>
+      <c r="D272" s="2" t="n">
+        <v>540.48</v>
+      </c>
+      <c r="E272" s="2" t="inlineStr"/>
+      <c r="F272" s="2" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="inlineStr"/>
+      <c r="B273" s="2" t="inlineStr"/>
+      <c r="C273" s="2" t="inlineStr"/>
+      <c r="D273" s="2" t="inlineStr"/>
+      <c r="E273" s="2" t="inlineStr">
         <is>
           <t>Accuracy over PyType</t>
         </is>
       </c>
-      <c r="F272" s="2" t="n">
-        <v>25.58</v>
+      <c r="F273" s="2" t="n">
+        <v>30.95</v>
       </c>
     </row>
   </sheetData>

--- a/scalpel/typeinfer/evaluation/evaluation_outputs/google__python-fire.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/google__python-fire.xlsx
@@ -1408,7 +1408,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'list'}</t>
+          <t>{'list', 'any'}</t>
         </is>
       </c>
       <c r="F30" s="5" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>any</t>
+          <t>list</t>
         </is>
       </c>
       <c r="F31" s="5" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="E115" s="2" t="inlineStr">
         <is>
-          <t>{'Tuple[None]', 'Tuple[any]'}</t>
+          <t>{'Tuple[any]', 'Tuple[None]'}</t>
         </is>
       </c>
       <c r="F115" s="3" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
-          <t>Tuple[None]</t>
+          <t>Tuple[any]</t>
         </is>
       </c>
       <c r="F116" s="3" t="inlineStr">
@@ -9126,16 +9126,16 @@
     <row r="272">
       <c r="A272" s="2" t="inlineStr"/>
       <c r="B272" s="2" t="inlineStr"/>
-      <c r="C272" s="2" t="inlineStr">
+      <c r="C272" s="2" t="inlineStr"/>
+      <c r="D272" s="2" t="inlineStr"/>
+      <c r="E272" s="2" t="inlineStr">
         <is>
           <t>Scalpel Accuracy:</t>
         </is>
       </c>
-      <c r="D272" s="2" t="n">
-        <v>540.48</v>
-      </c>
-      <c r="E272" s="2" t="inlineStr"/>
-      <c r="F272" s="2" t="inlineStr"/>
+      <c r="F272" s="2" t="n">
+        <v>84.39</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="inlineStr"/>
@@ -9144,7 +9144,7 @@
       <c r="D273" s="2" t="inlineStr"/>
       <c r="E273" s="2" t="inlineStr">
         <is>
-          <t>Accuracy over PyType</t>
+          <t>Accuracy vs PyType</t>
         </is>
       </c>
       <c r="F273" s="2" t="n">
